--- a/codigo/resultados/resultados_RS_cv_vs_test.xlsx
+++ b/codigo/resultados/resultados_RS_cv_vs_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="65">
   <si>
     <t>dataset_logico</t>
   </si>
@@ -99,7 +99,13 @@
     <t>tiempo_busqueda_seg</t>
   </si>
   <si>
-    <t>us_crime</t>
+    <t>ecoli</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>wdbc</t>
   </si>
   <si>
     <t>base</t>
@@ -144,31 +150,49 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>0.9831;0.7407;0.6316;1.0000;1.0000;0.9524</t>
   </si>
   <si>
-    <t>5</t>
+    <t>0.8387;0.7857;0.8000;0.8000;0.8000;1.0000</t>
   </si>
   <si>
-    <t>0.9706;0.5600</t>
+    <t>0.9730;0.9500</t>
   </si>
   <si>
-    <t>0.9577;0.5231</t>
+    <t>0.9796;0.9630</t>
   </si>
   <si>
-    <t>0.9550;0.4923</t>
+    <t>0.6957;0.7857;0.6000;1.0000;0.8000;0.8571</t>
   </si>
   <si>
-    <t>0.9564;0.5000</t>
+    <t>0.7500;0.7586;0.5455;1.0000;0.8000;0.9091</t>
   </si>
   <si>
-    <t>0.9478;0.4571</t>
+    <t>1.0000;0.7407;0.6316;1.0000;1.0000;1.0000</t>
   </si>
   <si>
-    <t>0.9519;0.5070</t>
+    <t>1.0000;0.6923;0.6000;1.0000;1.0000;1.0000</t>
   </si>
   <si>
-    <t>0.9488;0.5067</t>
+    <t>0.9831;0.8387;0.6250;1.0000;1.0000;0.9000</t>
+  </si>
+  <si>
+    <t>0.8387;0.7407;0.8000;0.8000;0.8000;0.9231</t>
+  </si>
+  <si>
+    <t>0.8387;0.7407;0.8000;0.6667;0.8000;1.0000</t>
+  </si>
+  <si>
+    <t>0.8276;0.7857;0.6667;0.6667;0.8000;1.0000</t>
+  </si>
+  <si>
+    <t>1.0000;1.0000</t>
+  </si>
+  <si>
+    <t>0.9863;0.9756</t>
+  </si>
+  <si>
+    <t>0.9931;0.9880</t>
   </si>
   <si>
     <t>{}</t>
@@ -544,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,615 +662,633 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>1595</v>
+        <v>268</v>
       </c>
       <c r="J2">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>0.7185365280828198</v>
+        <v>0.7006541995204698</v>
       </c>
       <c r="M2">
-        <v>0.6660875706214689</v>
+        <v>0.7097779635823114</v>
       </c>
       <c r="N2">
-        <v>0.4828205075255377</v>
+        <v>0.815242705971615</v>
       </c>
       <c r="O2">
-        <v>0.4417537193027735</v>
+        <v>0.8112360417568866</v>
       </c>
       <c r="P2">
-        <v>0.7652941176470589</v>
+        <v>0.8846252479912903</v>
       </c>
       <c r="Q2">
-        <v>0.7252032520325203</v>
+        <v>0.8985389610389611</v>
       </c>
       <c r="R2">
-        <v>0.5443069265097373</v>
+        <v>0.8449566376691582</v>
       </c>
       <c r="S2">
-        <v>0.5318400000000001</v>
+        <v>0.8384318384318384</v>
       </c>
       <c r="T2">
-        <v>0.9448621553884712</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U2" t="s">
         <v>44</v>
       </c>
       <c r="V2">
-        <v>0.4666666666666667</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.6775533859305168</v>
+        <v>0.886999599542952</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA2">
-        <v>10.40465250000125</v>
+        <v>6.417707600019639</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>2949</v>
+        <v>171</v>
       </c>
       <c r="J3">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>0.9681105778205431</v>
+        <v>0.670951431820997</v>
       </c>
       <c r="M3">
-        <v>0.9681321342096162</v>
+        <v>0.6748562548562549</v>
       </c>
       <c r="N3">
-        <v>0.937174580086474</v>
+        <v>0.6483111576213287</v>
       </c>
       <c r="O3">
-        <v>0.9362533647687823</v>
+        <v>0.6412293811890796</v>
       </c>
       <c r="P3">
-        <v>0.7403924860950781</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="Q3">
-        <v>0.7589430894308943</v>
+        <v>0.8325396825396826</v>
       </c>
       <c r="R3">
-        <v>0.482751261508248</v>
+        <v>0.7836588519573281</v>
       </c>
       <c r="S3">
-        <v>0.481057268722467</v>
+        <v>0.7790014684287813</v>
       </c>
       <c r="T3">
-        <v>0.9223057644110275</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="U3" t="s">
         <v>45</v>
       </c>
       <c r="V3">
-        <v>0.5666666666666667</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.7341828043776988</v>
+        <v>0.8193869397615444</v>
+      </c>
+      <c r="X3">
+        <v>0.9763370746392193</v>
+      </c>
+      <c r="Y3">
+        <v>0.9130641872610766</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA3">
-        <v>21.11362260000897</v>
+        <v>1.90516690001823</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4">
-        <v>2950</v>
+        <v>455</v>
       </c>
       <c r="J4">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>0.9688070999774594</v>
+        <v>0.9597136425335083</v>
       </c>
       <c r="M4">
-        <v>0.9688135593220339</v>
+        <v>0.9571207430340557</v>
       </c>
       <c r="N4">
-        <v>0.9379441165451174</v>
+        <v>0.9202322386255538</v>
       </c>
       <c r="O4">
-        <v>0.9376271186440679</v>
+        <v>0.9194679418263079</v>
       </c>
       <c r="P4">
-        <v>0.7236436142302445</v>
+        <v>0.9614864864864865</v>
       </c>
       <c r="Q4">
-        <v>0.7409214092140921</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="R4">
-        <v>0.4491531883629853</v>
+        <v>0.9258200997725514</v>
       </c>
       <c r="S4">
-        <v>0.4475770925110133</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="T4">
-        <v>0.9172932330827067</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="U4" t="s">
         <v>46</v>
       </c>
       <c r="V4">
-        <v>0.5333333333333333</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="W4">
-        <v>0.7112465995587751</v>
+        <v>0.9511897312113419</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA4">
-        <v>21.53188980001141</v>
+        <v>2.918334100017091</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5">
-        <v>2950</v>
+        <v>578</v>
       </c>
       <c r="J5">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L5">
-        <v>0.9647269587827587</v>
+        <v>0.9722210536957601</v>
       </c>
       <c r="M5">
-        <v>0.9647457627118644</v>
+        <v>0.9720800393737118</v>
       </c>
       <c r="N5">
-        <v>0.9303818257858252</v>
+        <v>0.9450792738874922</v>
       </c>
       <c r="O5">
-        <v>0.9294915254237288</v>
+        <v>0.9444672832553191</v>
       </c>
       <c r="P5">
-        <v>0.7282016348773842</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="Q5">
-        <v>0.7422764227642276</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="R5">
-        <v>0.4576453647622435</v>
+        <v>0.9441549509633318</v>
       </c>
       <c r="S5">
-        <v>0.45658835546476</v>
+        <v>0.9425981873111783</v>
       </c>
       <c r="T5">
-        <v>0.9197994987468672</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="U5" t="s">
         <v>47</v>
       </c>
       <c r="V5">
-        <v>0.5333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="W5">
-        <v>0.7122619414026919</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA5">
-        <v>21.05110720000812</v>
+        <v>2.796335099992575</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>2950</v>
+        <v>366</v>
       </c>
       <c r="J6">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>0.9576019645710397</v>
+        <v>0.9174046935351283</v>
       </c>
       <c r="M6">
-        <v>0.9576271186440678</v>
+        <v>0.9194444444444445</v>
       </c>
       <c r="N6">
-        <v>0.9162898571677296</v>
+        <v>0.9039894973927284</v>
       </c>
       <c r="O6">
-        <v>0.9152542372881356</v>
+        <v>0.9017034890210937</v>
       </c>
       <c r="P6">
-        <v>0.7024725274725274</v>
+        <v>0.789751552795031</v>
       </c>
       <c r="Q6">
-        <v>0.7341463414634146</v>
+        <v>0.8841269841269841</v>
       </c>
       <c r="R6">
-        <v>0.4111629396881826</v>
+        <v>0.7150141617455201</v>
       </c>
       <c r="S6">
-        <v>0.4061104582843714</v>
+        <v>0.7022160664819945</v>
       </c>
       <c r="T6">
-        <v>0.9047619047619048</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="U6" t="s">
         <v>48</v>
       </c>
       <c r="V6">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.7061479918897061</v>
+        <v>0.8650553496697627</v>
+      </c>
+      <c r="X6">
+        <v>0.9707288839963356</v>
+      </c>
+      <c r="Y6">
+        <v>0.8907621577678513</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA6">
-        <v>22.44692149999901</v>
+        <v>2.166273700015154</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I7">
-        <v>2920</v>
+        <v>570</v>
       </c>
       <c r="J7">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L7">
-        <v>0.9588787684613452</v>
+        <v>0.9736692160239679</v>
       </c>
       <c r="M7">
-        <v>0.958904109589041</v>
+        <v>0.9736842105263157</v>
       </c>
       <c r="N7">
-        <v>0.9188146567847244</v>
+        <v>0.9479558894810373</v>
       </c>
       <c r="O7">
-        <v>0.9178082191780822</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="P7">
-        <v>0.7294495999380048</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="Q7">
-        <v>0.7688346883468835</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="R7">
-        <v>0.466934184921374</v>
+        <v>0.9441549509633318</v>
       </c>
       <c r="S7">
-        <v>0.4601646758668677</v>
+        <v>0.9425981873111783</v>
       </c>
       <c r="T7">
-        <v>0.9122807017543859</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V7">
-        <v>0.6</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="W7">
-        <v>0.7500677476176804</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA7">
-        <v>22.94045300001744</v>
+        <v>3.000124599988339</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>366</v>
+      </c>
+      <c r="J8">
         <v>43</v>
       </c>
-      <c r="I8">
-        <v>2802</v>
-      </c>
-      <c r="J8">
-        <v>399</v>
-      </c>
       <c r="K8">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>0.9621453490355499</v>
+        <v>0.8977152557587342</v>
       </c>
       <c r="M8">
-        <v>0.9621771733604474</v>
+        <v>0.9002136752136751</v>
       </c>
       <c r="N8">
-        <v>0.9254475874222921</v>
+        <v>0.8800605723845438</v>
       </c>
       <c r="O8">
-        <v>0.9243402367173367</v>
+        <v>0.8786888350319371</v>
       </c>
       <c r="P8">
-        <v>0.7277455048409405</v>
+        <v>0.7938610240334377</v>
       </c>
       <c r="Q8">
-        <v>0.7814363143631435</v>
+        <v>0.8682539682539683</v>
       </c>
       <c r="R8">
-        <v>0.469219500565384</v>
+        <v>0.7104860740925467</v>
       </c>
       <c r="S8">
-        <v>0.4577410468319559</v>
+        <v>0.6993006993006992</v>
       </c>
       <c r="T8">
-        <v>0.9072681704260651</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V8">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.7672732371297316</v>
+        <v>0.85580031559338</v>
+      </c>
+      <c r="X8">
+        <v>0.9667310167310167</v>
+      </c>
+      <c r="Y8">
+        <v>0.9041478123988064</v>
       </c>
       <c r="Z8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA8">
-        <v>20.45697259998997</v>
+        <v>2.263379200012423</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>570</v>
+      </c>
+      <c r="J9">
+        <v>114</v>
+      </c>
+      <c r="K9">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9">
-        <v>2950</v>
-      </c>
-      <c r="J9">
-        <v>399</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
       <c r="L9">
-        <v>0.9576019645710397</v>
+        <v>0.9684070044096116</v>
       </c>
       <c r="M9">
-        <v>0.9576271186440678</v>
+        <v>0.9684210526315787</v>
       </c>
       <c r="N9">
-        <v>0.9162898571677296</v>
+        <v>0.9375258121977449</v>
       </c>
       <c r="O9">
-        <v>0.9152542372881356</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="P9">
-        <v>0.7024725274725274</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="Q9">
-        <v>0.7341463414634146</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="R9">
-        <v>0.4111629396881826</v>
+        <v>0.9441549509633318</v>
       </c>
       <c r="S9">
-        <v>0.4061104582843714</v>
+        <v>0.9425981873111783</v>
       </c>
       <c r="T9">
-        <v>0.9047619047619048</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="U9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V9">
-        <v>0.5333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="W9">
-        <v>0.7061479918897061</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="Z9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA9">
-        <v>23.78576150001027</v>
+        <v>2.569082100002561</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1254,76 +1296,76 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10">
-        <v>2920</v>
+        <v>480</v>
       </c>
       <c r="J10">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>0.9588787684613452</v>
+        <v>0.7660922448653535</v>
       </c>
       <c r="M10">
-        <v>0.958904109589041</v>
+        <v>0.7630811217767739</v>
       </c>
       <c r="N10">
-        <v>0.9188146567847244</v>
+        <v>0.8692092647332134</v>
       </c>
       <c r="O10">
-        <v>0.9178082191780822</v>
+        <v>0.8673502654179028</v>
       </c>
       <c r="P10">
-        <v>0.7294495999380048</v>
+        <v>0.8953866146848602</v>
       </c>
       <c r="Q10">
-        <v>0.7688346883468835</v>
+        <v>0.9136904761904763</v>
       </c>
       <c r="R10">
-        <v>0.466934184921374</v>
+        <v>0.865789147477617</v>
       </c>
       <c r="S10">
-        <v>0.4601646758668677</v>
+        <v>0.8593796159527327</v>
       </c>
       <c r="T10">
-        <v>0.9122807017543859</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.7500677476176804</v>
+        <v>0.9012021198458813</v>
       </c>
       <c r="Z10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA10">
-        <v>22.90009229999851</v>
+        <v>2.064824400003999</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1331,76 +1373,76 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
       </c>
       <c r="I11">
-        <v>2802</v>
+        <v>480</v>
       </c>
       <c r="J11">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>0.9621453490355499</v>
+        <v>0.7603933372870511</v>
       </c>
       <c r="M11">
-        <v>0.9621771733604474</v>
+        <v>0.7716544325239978</v>
       </c>
       <c r="N11">
-        <v>0.9254475874222921</v>
+        <v>0.8684636911761293</v>
       </c>
       <c r="O11">
-        <v>0.9243402367173367</v>
+        <v>0.8674163341272385</v>
       </c>
       <c r="P11">
-        <v>0.7277455048409405</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q11">
-        <v>0.7814363143631435</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R11">
-        <v>0.469219500565384</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S11">
-        <v>0.4577410468319559</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T11">
-        <v>0.9072681704260651</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V11">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.7672732371297316</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA11">
-        <v>23.4078972999996</v>
+        <v>2.047145800024737</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1408,76 +1450,76 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12">
-        <v>2950</v>
+        <v>480</v>
       </c>
       <c r="J12">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>0.9576019645710397</v>
+        <v>0.7660922448653535</v>
       </c>
       <c r="M12">
-        <v>0.9576271186440678</v>
+        <v>0.7630811217767739</v>
       </c>
       <c r="N12">
-        <v>0.9162898571677296</v>
+        <v>0.8692092647332134</v>
       </c>
       <c r="O12">
-        <v>0.9152542372881356</v>
+        <v>0.8673502654179028</v>
       </c>
       <c r="P12">
-        <v>0.7024725274725274</v>
+        <v>0.8953866146848602</v>
       </c>
       <c r="Q12">
-        <v>0.7341463414634146</v>
+        <v>0.9136904761904763</v>
       </c>
       <c r="R12">
-        <v>0.4111629396881826</v>
+        <v>0.865789147477617</v>
       </c>
       <c r="S12">
-        <v>0.4061104582843714</v>
+        <v>0.8593796159527327</v>
       </c>
       <c r="T12">
-        <v>0.9047619047619048</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V12">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0.7061479918897061</v>
+        <v>0.9012021198458813</v>
       </c>
       <c r="Z12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA12">
-        <v>23.21733109999332</v>
+        <v>2.038514500018209</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1485,76 +1527,76 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13">
-        <v>2920</v>
+        <v>480</v>
       </c>
       <c r="J13">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>0.9588787684613452</v>
+        <v>0.7603933372870511</v>
       </c>
       <c r="M13">
-        <v>0.958904109589041</v>
+        <v>0.7716544325239978</v>
       </c>
       <c r="N13">
-        <v>0.9188146567847244</v>
+        <v>0.8684636911761293</v>
       </c>
       <c r="O13">
-        <v>0.9178082191780822</v>
+        <v>0.8674163341272385</v>
       </c>
       <c r="P13">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q13">
-        <v>0.7688346883468835</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R13">
-        <v>0.466934184921374</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S13">
-        <v>0.4601646758668677</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T13">
-        <v>0.9122807017543859</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.7500677476176804</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA13">
-        <v>23.14381839998532</v>
+        <v>2.206544699991355</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1562,76 +1604,76 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
       <c r="I14">
-        <v>2802</v>
+        <v>480</v>
       </c>
       <c r="J14">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>0.9621453490355499</v>
+        <v>0.7660922448653535</v>
       </c>
       <c r="M14">
-        <v>0.9621771733604474</v>
+        <v>0.7630811217767739</v>
       </c>
       <c r="N14">
-        <v>0.9254475874222921</v>
+        <v>0.8692092647332134</v>
       </c>
       <c r="O14">
-        <v>0.9243402367173367</v>
+        <v>0.8673502654179028</v>
       </c>
       <c r="P14">
-        <v>0.7277455048409405</v>
+        <v>0.8953866146848602</v>
       </c>
       <c r="Q14">
-        <v>0.7814363143631435</v>
+        <v>0.9136904761904763</v>
       </c>
       <c r="R14">
-        <v>0.469219500565384</v>
+        <v>0.865789147477617</v>
       </c>
       <c r="S14">
-        <v>0.4577410468319559</v>
+        <v>0.8593796159527327</v>
       </c>
       <c r="T14">
-        <v>0.9072681704260651</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U14" t="s">
         <v>50</v>
       </c>
       <c r="V14">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.7672732371297316</v>
+        <v>0.9012021198458813</v>
       </c>
       <c r="Z14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA14">
-        <v>20.75918780002394</v>
+        <v>2.129569699987769</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1639,76 +1681,76 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I15">
-        <v>2950</v>
+        <v>480</v>
       </c>
       <c r="J15">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>0.9576019645710397</v>
+        <v>0.7603933372870511</v>
       </c>
       <c r="M15">
-        <v>0.9576271186440678</v>
+        <v>0.7716544325239978</v>
       </c>
       <c r="N15">
-        <v>0.9162898571677296</v>
+        <v>0.8684636911761293</v>
       </c>
       <c r="O15">
-        <v>0.9152542372881356</v>
+        <v>0.8674163341272385</v>
       </c>
       <c r="P15">
-        <v>0.7024725274725274</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q15">
-        <v>0.7341463414634146</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R15">
-        <v>0.4111629396881826</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S15">
-        <v>0.4061104582843714</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T15">
-        <v>0.9047619047619048</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V15">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.7061479918897061</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA15">
-        <v>22.72936110000592</v>
+        <v>2.082039200002328</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1716,76 +1758,76 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16">
-        <v>2920</v>
+        <v>321</v>
       </c>
       <c r="J16">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="M16">
-        <v>0.958904109589041</v>
+        <v>0.735212110755589</v>
       </c>
       <c r="N16">
-        <v>0.9188146567847244</v>
+        <v>0.8359721649812449</v>
       </c>
       <c r="O16">
-        <v>0.9178082191780822</v>
+        <v>0.831931887654355</v>
       </c>
       <c r="P16">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="Q16">
-        <v>0.7688346883468835</v>
+        <v>0.8908279220779222</v>
       </c>
       <c r="R16">
-        <v>0.466934184921374</v>
+        <v>0.8585624298368886</v>
       </c>
       <c r="S16">
-        <v>0.4601646758668677</v>
+        <v>0.8572713643178411</v>
       </c>
       <c r="T16">
-        <v>0.9122807017543859</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0.7500677476176804</v>
+        <v>0.8832646708448222</v>
       </c>
       <c r="Z16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA16">
-        <v>25.09011879999889</v>
+        <v>1.939434500003699</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1793,76 +1835,76 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
       <c r="I17">
-        <v>2802</v>
+        <v>480</v>
       </c>
       <c r="J17">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>0.9621453490355499</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="M17">
-        <v>0.9621771733604474</v>
+        <v>0.816116130246565</v>
       </c>
       <c r="N17">
-        <v>0.9254475874222921</v>
+        <v>0.8798913518368494</v>
       </c>
       <c r="O17">
-        <v>0.9243402367173367</v>
+        <v>0.8784430731954138</v>
       </c>
       <c r="P17">
-        <v>0.7277455048409405</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q17">
-        <v>0.7814363143631435</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R17">
-        <v>0.469219500565384</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S17">
-        <v>0.4577410468319559</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T17">
-        <v>0.9072681704260651</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V17">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0.7672732371297316</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA17">
-        <v>22.08979339999496</v>
+        <v>2.087340400001267</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1870,76 +1912,76 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18">
-        <v>2950</v>
+        <v>321</v>
       </c>
       <c r="J18">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>0.9576019645710397</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="M18">
-        <v>0.9576271186440678</v>
+        <v>0.735212110755589</v>
       </c>
       <c r="N18">
-        <v>0.9162898571677296</v>
+        <v>0.8359721649812449</v>
       </c>
       <c r="O18">
-        <v>0.9152542372881356</v>
+        <v>0.831931887654355</v>
       </c>
       <c r="P18">
-        <v>0.7024725274725274</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="Q18">
-        <v>0.7341463414634146</v>
+        <v>0.8908279220779222</v>
       </c>
       <c r="R18">
-        <v>0.4111629396881826</v>
+        <v>0.8585624298368886</v>
       </c>
       <c r="S18">
-        <v>0.4061104582843714</v>
+        <v>0.8572713643178411</v>
       </c>
       <c r="T18">
-        <v>0.9047619047619048</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V18">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0.7061479918897061</v>
+        <v>0.8832646708448222</v>
       </c>
       <c r="Z18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA18">
-        <v>24.32528380001895</v>
+        <v>2.06343080001534</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1947,76 +1989,76 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19">
-        <v>2920</v>
+        <v>480</v>
       </c>
       <c r="J19">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="M19">
-        <v>0.958904109589041</v>
+        <v>0.816116130246565</v>
       </c>
       <c r="N19">
-        <v>0.9188146567847244</v>
+        <v>0.8798913518368494</v>
       </c>
       <c r="O19">
-        <v>0.9178082191780822</v>
+        <v>0.8784430731954138</v>
       </c>
       <c r="P19">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q19">
-        <v>0.7688346883468835</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R19">
-        <v>0.466934184921374</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S19">
-        <v>0.4601646758668677</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T19">
-        <v>0.9122807017543859</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0.7500677476176804</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA19">
-        <v>25.99393590001273</v>
+        <v>2.106942999991588</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2024,76 +2066,76 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
       </c>
       <c r="I20">
-        <v>2802</v>
+        <v>321</v>
       </c>
       <c r="J20">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>0.9621453490355499</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="M20">
-        <v>0.9621771733604474</v>
+        <v>0.735212110755589</v>
       </c>
       <c r="N20">
-        <v>0.9254475874222921</v>
+        <v>0.8359721649812449</v>
       </c>
       <c r="O20">
-        <v>0.9243402367173367</v>
+        <v>0.831931887654355</v>
       </c>
       <c r="P20">
-        <v>0.7277455048409405</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="Q20">
-        <v>0.7814363143631435</v>
+        <v>0.8908279220779222</v>
       </c>
       <c r="R20">
-        <v>0.469219500565384</v>
+        <v>0.8585624298368886</v>
       </c>
       <c r="S20">
-        <v>0.4577410468319559</v>
+        <v>0.8572713643178411</v>
       </c>
       <c r="T20">
-        <v>0.9072681704260651</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V20">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0.7672732371297316</v>
+        <v>0.8832646708448222</v>
       </c>
       <c r="Z20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA20">
-        <v>23.49878969998099</v>
+        <v>1.882657600013772</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2101,76 +2143,76 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I21">
-        <v>2950</v>
+        <v>480</v>
       </c>
       <c r="J21">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>0.9576019645710397</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="M21">
-        <v>0.9576271186440678</v>
+        <v>0.816116130246565</v>
       </c>
       <c r="N21">
-        <v>0.9162898571677296</v>
+        <v>0.8798913518368494</v>
       </c>
       <c r="O21">
-        <v>0.9152542372881356</v>
+        <v>0.8784430731954138</v>
       </c>
       <c r="P21">
-        <v>0.7024725274725274</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q21">
-        <v>0.7341463414634146</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R21">
-        <v>0.4111629396881826</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S21">
-        <v>0.4061104582843714</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T21">
-        <v>0.9047619047619048</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V21">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.7061479918897061</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA21">
-        <v>24.39139000000432</v>
+        <v>2.06396319999476</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2178,76 +2220,76 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22">
-        <v>2920</v>
+        <v>321</v>
       </c>
       <c r="J22">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="M22">
-        <v>0.958904109589041</v>
+        <v>0.735212110755589</v>
       </c>
       <c r="N22">
-        <v>0.9188146567847244</v>
+        <v>0.8359721649812449</v>
       </c>
       <c r="O22">
-        <v>0.9178082191780822</v>
+        <v>0.831931887654355</v>
       </c>
       <c r="P22">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="Q22">
-        <v>0.7688346883468835</v>
+        <v>0.8908279220779222</v>
       </c>
       <c r="R22">
-        <v>0.466934184921374</v>
+        <v>0.8585624298368886</v>
       </c>
       <c r="S22">
-        <v>0.4601646758668677</v>
+        <v>0.8572713643178411</v>
       </c>
       <c r="T22">
-        <v>0.9122807017543859</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.7500677476176804</v>
+        <v>0.8832646708448222</v>
       </c>
       <c r="Z22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA22">
-        <v>26.40056700000423</v>
+        <v>1.895522300008452</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2255,76 +2297,76 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
         <v>43</v>
       </c>
       <c r="I23">
-        <v>2802</v>
+        <v>480</v>
       </c>
       <c r="J23">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>0.9621453490355499</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="M23">
-        <v>0.9621771733604474</v>
+        <v>0.816116130246565</v>
       </c>
       <c r="N23">
-        <v>0.9254475874222921</v>
+        <v>0.8798913518368494</v>
       </c>
       <c r="O23">
-        <v>0.9243402367173367</v>
+        <v>0.8784430731954138</v>
       </c>
       <c r="P23">
-        <v>0.7277455048409405</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q23">
-        <v>0.7814363143631435</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R23">
-        <v>0.469219500565384</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S23">
-        <v>0.4577410468319559</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T23">
-        <v>0.9072681704260651</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V23">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0.7672732371297316</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA23">
-        <v>21.98565950000193</v>
+        <v>2.269144199992297</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2332,76 +2374,76 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24">
-        <v>2950</v>
+        <v>321</v>
       </c>
       <c r="J24">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>0.9576019645710397</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="M24">
-        <v>0.9576271186440678</v>
+        <v>0.735212110755589</v>
       </c>
       <c r="N24">
-        <v>0.9162898571677296</v>
+        <v>0.8359721649812449</v>
       </c>
       <c r="O24">
-        <v>0.9152542372881356</v>
+        <v>0.831931887654355</v>
       </c>
       <c r="P24">
-        <v>0.7024725274725274</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="Q24">
-        <v>0.7341463414634146</v>
+        <v>0.8908279220779222</v>
       </c>
       <c r="R24">
-        <v>0.4111629396881826</v>
+        <v>0.8585624298368886</v>
       </c>
       <c r="S24">
-        <v>0.4061104582843714</v>
+        <v>0.8572713643178411</v>
       </c>
       <c r="T24">
-        <v>0.9047619047619048</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V24">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0.7061479918897061</v>
+        <v>0.8832646708448222</v>
       </c>
       <c r="Z24" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA24">
-        <v>25.78776469998411</v>
+        <v>1.895398099994054</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2409,76 +2451,76 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25">
-        <v>2920</v>
+        <v>480</v>
       </c>
       <c r="J25">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="M25">
-        <v>0.958904109589041</v>
+        <v>0.816116130246565</v>
       </c>
       <c r="N25">
-        <v>0.9188146567847244</v>
+        <v>0.8798913518368494</v>
       </c>
       <c r="O25">
-        <v>0.9178082191780822</v>
+        <v>0.8784430731954138</v>
       </c>
       <c r="P25">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q25">
-        <v>0.7688346883468835</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R25">
-        <v>0.466934184921374</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S25">
-        <v>0.4601646758668677</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T25">
-        <v>0.9122807017543859</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V25">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0.7500677476176804</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z25" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA25">
-        <v>26.92706400001771</v>
+        <v>2.060178699990502</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2486,76 +2528,76 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
       </c>
       <c r="I26">
-        <v>2802</v>
+        <v>321</v>
       </c>
       <c r="J26">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>0.9621453490355499</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="M26">
-        <v>0.9621771733604474</v>
+        <v>0.735212110755589</v>
       </c>
       <c r="N26">
-        <v>0.9254475874222921</v>
+        <v>0.8359721649812449</v>
       </c>
       <c r="O26">
-        <v>0.9243402367173367</v>
+        <v>0.831931887654355</v>
       </c>
       <c r="P26">
-        <v>0.7277455048409405</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="Q26">
-        <v>0.7814363143631435</v>
+        <v>0.8908279220779222</v>
       </c>
       <c r="R26">
-        <v>0.469219500565384</v>
+        <v>0.8585624298368886</v>
       </c>
       <c r="S26">
-        <v>0.4577410468319559</v>
+        <v>0.8572713643178411</v>
       </c>
       <c r="T26">
-        <v>0.9072681704260651</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="U26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V26">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>0.7672732371297316</v>
+        <v>0.8832646708448222</v>
       </c>
       <c r="Z26" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA26">
-        <v>22.28056149999611</v>
+        <v>1.869501999986824</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2563,2540 +2605,2956 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27">
-        <v>2950</v>
+        <v>480</v>
       </c>
       <c r="J27">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L27">
-        <v>0.9576019645710397</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="M27">
-        <v>0.9576271186440678</v>
+        <v>0.816116130246565</v>
       </c>
       <c r="N27">
-        <v>0.9162898571677296</v>
+        <v>0.8798913518368494</v>
       </c>
       <c r="O27">
-        <v>0.9152542372881356</v>
+        <v>0.8784430731954138</v>
       </c>
       <c r="P27">
-        <v>0.7024725274725274</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="Q27">
-        <v>0.7341463414634146</v>
+        <v>0.9032738095238096</v>
       </c>
       <c r="R27">
-        <v>0.4111629396881826</v>
+        <v>0.8487316693441237</v>
       </c>
       <c r="S27">
-        <v>0.4061104582843714</v>
+        <v>0.8397171479080731</v>
       </c>
       <c r="T27">
-        <v>0.9047619047619048</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V27">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>0.7061479918897061</v>
+        <v>0.8855150692461791</v>
       </c>
       <c r="Z27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA27">
-        <v>27.07847560002119</v>
+        <v>2.683550099987769</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28">
-        <v>2920</v>
+        <v>214</v>
       </c>
       <c r="J28">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>0.9588787684613452</v>
+        <v>0.7828276091724368</v>
       </c>
       <c r="M28">
-        <v>0.958904109589041</v>
+        <v>0.7767094017094017</v>
       </c>
       <c r="N28">
-        <v>0.9188146567847244</v>
+        <v>0.784415374207704</v>
       </c>
       <c r="O28">
-        <v>0.9178082191780822</v>
+        <v>0.7793542112357053</v>
       </c>
       <c r="P28">
-        <v>0.7294495999380048</v>
+        <v>0.8170878902061697</v>
       </c>
       <c r="Q28">
-        <v>0.7688346883468835</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="R28">
-        <v>0.466934184921374</v>
+        <v>0.7551674734450934</v>
       </c>
       <c r="S28">
-        <v>0.4601646758668677</v>
+        <v>0.7490882567469002</v>
       </c>
       <c r="T28">
-        <v>0.9122807017543859</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0.7500677476176804</v>
+        <v>0.8064737881037248</v>
+      </c>
+      <c r="X28">
+        <v>0.976272577996716</v>
+      </c>
+      <c r="Y28">
+        <v>0.9464469963069403</v>
       </c>
       <c r="Z28" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA28">
-        <v>25.82914129999699</v>
+        <v>1.922721300012199</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
         <v>43</v>
       </c>
       <c r="I29">
-        <v>2802</v>
+        <v>176</v>
       </c>
       <c r="J29">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>0.9621453490355499</v>
+        <v>0.6940391834644708</v>
       </c>
       <c r="M29">
-        <v>0.9621771733604474</v>
+        <v>0.6958547008547009</v>
       </c>
       <c r="N29">
-        <v>0.9254475874222921</v>
+        <v>0.6746921325456593</v>
       </c>
       <c r="O29">
-        <v>0.9243402367173367</v>
+        <v>0.6682073823625601</v>
       </c>
       <c r="P29">
-        <v>0.7277455048409405</v>
+        <v>0.8076861808044603</v>
       </c>
       <c r="Q29">
-        <v>0.7814363143631435</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="R29">
-        <v>0.469219500565384</v>
+        <v>0.7551392706958928</v>
       </c>
       <c r="S29">
-        <v>0.4577410468319559</v>
+        <v>0.7496360989810772</v>
       </c>
       <c r="T29">
-        <v>0.9072681704260651</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V29">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0.7672732371297316</v>
+        <v>0.8064737881037248</v>
+      </c>
+      <c r="X29">
+        <v>0.9740758540590333</v>
+      </c>
+      <c r="Y29">
+        <v>0.8994153358974418</v>
       </c>
       <c r="Z29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA29">
-        <v>24.46750199998496</v>
+        <v>1.870561100018676</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30">
-        <v>2950</v>
+        <v>214</v>
       </c>
       <c r="J30">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>0.9576019645710397</v>
+        <v>0.7828276091724368</v>
       </c>
       <c r="M30">
-        <v>0.9576271186440678</v>
+        <v>0.7767094017094017</v>
       </c>
       <c r="N30">
-        <v>0.9162898571677296</v>
+        <v>0.784415374207704</v>
       </c>
       <c r="O30">
-        <v>0.9152542372881356</v>
+        <v>0.7793542112357053</v>
       </c>
       <c r="P30">
-        <v>0.7024725274725274</v>
+        <v>0.8170878902061697</v>
       </c>
       <c r="Q30">
-        <v>0.7341463414634146</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="R30">
-        <v>0.4111629396881826</v>
+        <v>0.7551674734450934</v>
       </c>
       <c r="S30">
-        <v>0.4061104582843714</v>
+        <v>0.7490882567469002</v>
       </c>
       <c r="T30">
-        <v>0.9047619047619048</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="V30">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0.7061479918897061</v>
+        <v>0.8064737881037248</v>
+      </c>
+      <c r="X30">
+        <v>0.976272577996716</v>
+      </c>
+      <c r="Y30">
+        <v>0.9464469963069403</v>
       </c>
       <c r="Z30" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA30">
-        <v>28.10043650001171</v>
+        <v>1.842029899999034</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31">
-        <v>2920</v>
+        <v>176</v>
       </c>
       <c r="J31">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>0.9588787684613452</v>
+        <v>0.6940391834644708</v>
       </c>
       <c r="M31">
-        <v>0.958904109589041</v>
+        <v>0.6958547008547009</v>
       </c>
       <c r="N31">
-        <v>0.9188146567847244</v>
+        <v>0.6746921325456593</v>
       </c>
       <c r="O31">
-        <v>0.9178082191780822</v>
+        <v>0.6682073823625601</v>
       </c>
       <c r="P31">
-        <v>0.7294495999380048</v>
+        <v>0.8076861808044603</v>
       </c>
       <c r="Q31">
-        <v>0.7688346883468835</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="R31">
-        <v>0.466934184921374</v>
+        <v>0.7551392706958928</v>
       </c>
       <c r="S31">
-        <v>0.4601646758668677</v>
+        <v>0.7496360989810772</v>
       </c>
       <c r="T31">
-        <v>0.9122807017543859</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="V31">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>0.7500677476176804</v>
+        <v>0.8064737881037248</v>
+      </c>
+      <c r="X31">
+        <v>0.9740758540590333</v>
+      </c>
+      <c r="Y31">
+        <v>0.8994153358974418</v>
       </c>
       <c r="Z31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA31">
-        <v>27.15647660000832</v>
+        <v>1.778902899997775</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
       </c>
       <c r="I32">
-        <v>2802</v>
+        <v>214</v>
       </c>
       <c r="J32">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>0.9621453490355499</v>
+        <v>0.7828276091724368</v>
       </c>
       <c r="M32">
-        <v>0.9621771733604474</v>
+        <v>0.7767094017094017</v>
       </c>
       <c r="N32">
-        <v>0.9254475874222921</v>
+        <v>0.784415374207704</v>
       </c>
       <c r="O32">
-        <v>0.9243402367173367</v>
+        <v>0.7793542112357053</v>
       </c>
       <c r="P32">
-        <v>0.7277455048409405</v>
+        <v>0.8170878902061697</v>
       </c>
       <c r="Q32">
-        <v>0.7814363143631435</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="R32">
-        <v>0.469219500565384</v>
+        <v>0.7551674734450934</v>
       </c>
       <c r="S32">
-        <v>0.4577410468319559</v>
+        <v>0.7490882567469002</v>
       </c>
       <c r="T32">
-        <v>0.9072681704260651</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V32">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>0.7672732371297316</v>
+        <v>0.8064737881037248</v>
+      </c>
+      <c r="X32">
+        <v>0.976272577996716</v>
+      </c>
+      <c r="Y32">
+        <v>0.9464469963069403</v>
       </c>
       <c r="Z32" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA32">
-        <v>23.67558650000137</v>
+        <v>2.14598170001409</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33">
-        <v>2950</v>
+        <v>176</v>
       </c>
       <c r="J33">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>0.9576019645710397</v>
+        <v>0.6940391834644708</v>
       </c>
       <c r="M33">
-        <v>0.9576271186440678</v>
+        <v>0.6958547008547009</v>
       </c>
       <c r="N33">
-        <v>0.9162898571677296</v>
+        <v>0.6746921325456593</v>
       </c>
       <c r="O33">
-        <v>0.9152542372881356</v>
+        <v>0.6682073823625601</v>
       </c>
       <c r="P33">
-        <v>0.7024725274725274</v>
+        <v>0.8076861808044603</v>
       </c>
       <c r="Q33">
-        <v>0.7341463414634146</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="R33">
-        <v>0.4111629396881826</v>
+        <v>0.7551392706958928</v>
       </c>
       <c r="S33">
-        <v>0.4061104582843714</v>
+        <v>0.7496360989810772</v>
       </c>
       <c r="T33">
-        <v>0.9047619047619048</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="V33">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>0.7061479918897061</v>
+        <v>0.8064737881037248</v>
+      </c>
+      <c r="X33">
+        <v>0.9740758540590333</v>
+      </c>
+      <c r="Y33">
+        <v>0.8994153358974418</v>
       </c>
       <c r="Z33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA33">
-        <v>26.44238750002114</v>
+        <v>1.881746700004442</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I34">
-        <v>2920</v>
+        <v>209</v>
       </c>
       <c r="J34">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>0.9588787684613452</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="M34">
-        <v>0.958904109589041</v>
+        <v>0.6907536907536908</v>
       </c>
       <c r="N34">
-        <v>0.9188146567847244</v>
+        <v>0.7172791438965261</v>
       </c>
       <c r="O34">
-        <v>0.9178082191780822</v>
+        <v>0.7100973330919003</v>
       </c>
       <c r="P34">
-        <v>0.7294495999380048</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="Q34">
-        <v>0.7688346883468835</v>
+        <v>0.8206349206349207</v>
       </c>
       <c r="R34">
-        <v>0.466934184921374</v>
+        <v>0.7531013707577048</v>
       </c>
       <c r="S34">
-        <v>0.4601646758668677</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="T34">
-        <v>0.9122807017543859</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="V34">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0.7500677476176804</v>
+        <v>0.8085285372444879</v>
+      </c>
+      <c r="X34">
+        <v>0.9770730706075534</v>
+      </c>
+      <c r="Y34">
+        <v>0.94091782011809</v>
       </c>
       <c r="Z34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA34">
-        <v>26.27162500002305</v>
+        <v>1.923348600015743</v>
       </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
         <v>43</v>
       </c>
       <c r="I35">
-        <v>2802</v>
+        <v>176</v>
       </c>
       <c r="J35">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>0.9621453490355499</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="M35">
-        <v>0.9621771733604474</v>
+        <v>0.7155128205128205</v>
       </c>
       <c r="N35">
-        <v>0.9254475874222921</v>
+        <v>0.6807020645306401</v>
       </c>
       <c r="O35">
-        <v>0.9243402367173367</v>
+        <v>0.6741515044731653</v>
       </c>
       <c r="P35">
-        <v>0.7277455048409405</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="Q35">
-        <v>0.7814363143631435</v>
+        <v>0.8325396825396826</v>
       </c>
       <c r="R35">
-        <v>0.469219500565384</v>
+        <v>0.7836588519573281</v>
       </c>
       <c r="S35">
-        <v>0.4577410468319559</v>
+        <v>0.7790014684287813</v>
       </c>
       <c r="T35">
-        <v>0.9072681704260651</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="U35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V35">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0.7672732371297316</v>
+        <v>0.8193869397615444</v>
+      </c>
+      <c r="X35">
+        <v>0.970730205454764</v>
+      </c>
+      <c r="Y35">
+        <v>0.92049371240474</v>
       </c>
       <c r="Z35" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA35">
-        <v>21.25645049999002</v>
+        <v>1.856080899975495</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I36">
-        <v>2950</v>
+        <v>209</v>
       </c>
       <c r="J36">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>0.9576019645710397</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="M36">
-        <v>0.9576271186440678</v>
+        <v>0.6907536907536908</v>
       </c>
       <c r="N36">
-        <v>0.9162898571677296</v>
+        <v>0.7172791438965261</v>
       </c>
       <c r="O36">
-        <v>0.9152542372881356</v>
+        <v>0.7100973330919003</v>
       </c>
       <c r="P36">
-        <v>0.7024725274725274</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="Q36">
-        <v>0.7341463414634146</v>
+        <v>0.8206349206349207</v>
       </c>
       <c r="R36">
-        <v>0.4111629396881826</v>
+        <v>0.7531013707577048</v>
       </c>
       <c r="S36">
-        <v>0.4061104582843714</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="T36">
-        <v>0.9047619047619048</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U36" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V36">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0.7061479918897061</v>
+        <v>0.8085285372444879</v>
+      </c>
+      <c r="X36">
+        <v>0.9770730706075534</v>
+      </c>
+      <c r="Y36">
+        <v>0.94091782011809</v>
       </c>
       <c r="Z36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA36">
-        <v>23.52254249999532</v>
+        <v>1.913926600012928</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I37">
-        <v>2920</v>
+        <v>176</v>
       </c>
       <c r="J37">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>0.9588787684613452</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="M37">
-        <v>0.958904109589041</v>
+        <v>0.7155128205128205</v>
       </c>
       <c r="N37">
-        <v>0.9188146567847244</v>
+        <v>0.6807020645306401</v>
       </c>
       <c r="O37">
-        <v>0.9178082191780822</v>
+        <v>0.6741515044731653</v>
       </c>
       <c r="P37">
-        <v>0.7294495999380048</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="Q37">
-        <v>0.7688346883468835</v>
+        <v>0.8325396825396826</v>
       </c>
       <c r="R37">
-        <v>0.466934184921374</v>
+        <v>0.7836588519573281</v>
       </c>
       <c r="S37">
-        <v>0.4601646758668677</v>
+        <v>0.7790014684287813</v>
       </c>
       <c r="T37">
-        <v>0.9122807017543859</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="U37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V37">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>0.7500677476176804</v>
+        <v>0.8193869397615444</v>
+      </c>
+      <c r="X37">
+        <v>0.970730205454764</v>
+      </c>
+      <c r="Y37">
+        <v>0.92049371240474</v>
       </c>
       <c r="Z37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA37">
-        <v>23.68457209999906</v>
+        <v>2.003905099991243</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
       </c>
       <c r="I38">
-        <v>2802</v>
+        <v>209</v>
       </c>
       <c r="J38">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L38">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="M38">
-        <v>0.9621771733604474</v>
+        <v>0.6907536907536908</v>
       </c>
       <c r="N38">
-        <v>0.9254475874222921</v>
+        <v>0.7172791438965261</v>
       </c>
       <c r="O38">
-        <v>0.9243402367173367</v>
+        <v>0.7100973330919003</v>
       </c>
       <c r="P38">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="Q38">
-        <v>0.7814363143631435</v>
+        <v>0.8206349206349207</v>
       </c>
       <c r="R38">
-        <v>0.469219500565384</v>
+        <v>0.7531013707577048</v>
       </c>
       <c r="S38">
-        <v>0.4577410468319559</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="T38">
-        <v>0.9072681704260651</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U38" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V38">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W38">
-        <v>0.7672732371297316</v>
+        <v>0.8085285372444879</v>
+      </c>
+      <c r="X38">
+        <v>0.9770730706075534</v>
+      </c>
+      <c r="Y38">
+        <v>0.94091782011809</v>
       </c>
       <c r="Z38" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA38">
-        <v>21.37015100001008</v>
+        <v>2.029004899988649</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I39">
-        <v>2950</v>
+        <v>176</v>
       </c>
       <c r="J39">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L39">
-        <v>0.9576019645710397</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="M39">
-        <v>0.9576271186440678</v>
+        <v>0.7155128205128205</v>
       </c>
       <c r="N39">
-        <v>0.9162898571677296</v>
+        <v>0.6807020645306401</v>
       </c>
       <c r="O39">
-        <v>0.9152542372881356</v>
+        <v>0.6741515044731653</v>
       </c>
       <c r="P39">
-        <v>0.7024725274725274</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="Q39">
-        <v>0.7341463414634146</v>
+        <v>0.8325396825396826</v>
       </c>
       <c r="R39">
-        <v>0.4111629396881826</v>
+        <v>0.7836588519573281</v>
       </c>
       <c r="S39">
-        <v>0.4061104582843714</v>
+        <v>0.7790014684287813</v>
       </c>
       <c r="T39">
-        <v>0.9047619047619048</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="U39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V39">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W39">
-        <v>0.7061479918897061</v>
+        <v>0.8193869397615444</v>
+      </c>
+      <c r="X39">
+        <v>0.970730205454764</v>
+      </c>
+      <c r="Y39">
+        <v>0.92049371240474</v>
       </c>
       <c r="Z39" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA39">
-        <v>23.4642289999756</v>
+        <v>1.905711899977177</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40">
-        <v>2920</v>
+        <v>209</v>
       </c>
       <c r="J40">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L40">
-        <v>0.9588787684613452</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="M40">
-        <v>0.958904109589041</v>
+        <v>0.6907536907536908</v>
       </c>
       <c r="N40">
-        <v>0.9188146567847244</v>
+        <v>0.7172791438965261</v>
       </c>
       <c r="O40">
-        <v>0.9178082191780822</v>
+        <v>0.7100973330919003</v>
       </c>
       <c r="P40">
-        <v>0.7294495999380048</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="Q40">
-        <v>0.7688346883468835</v>
+        <v>0.8206349206349207</v>
       </c>
       <c r="R40">
-        <v>0.466934184921374</v>
+        <v>0.7531013707577048</v>
       </c>
       <c r="S40">
-        <v>0.4601646758668677</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="T40">
-        <v>0.9122807017543859</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U40" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="V40">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>0.7500677476176804</v>
+        <v>0.8085285372444879</v>
+      </c>
+      <c r="X40">
+        <v>0.9770730706075534</v>
+      </c>
+      <c r="Y40">
+        <v>0.94091782011809</v>
       </c>
       <c r="Z40" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA40">
-        <v>23.35391570001957</v>
+        <v>1.837312399991788</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
       </c>
       <c r="I41">
-        <v>2802</v>
+        <v>176</v>
       </c>
       <c r="J41">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K41">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L41">
-        <v>0.9621453490355499</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="M41">
-        <v>0.9621771733604474</v>
+        <v>0.7155128205128205</v>
       </c>
       <c r="N41">
-        <v>0.9254475874222921</v>
+        <v>0.6807020645306401</v>
       </c>
       <c r="O41">
-        <v>0.9243402367173367</v>
+        <v>0.6741515044731653</v>
       </c>
       <c r="P41">
-        <v>0.7277455048409405</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="Q41">
-        <v>0.7814363143631435</v>
+        <v>0.8325396825396826</v>
       </c>
       <c r="R41">
-        <v>0.469219500565384</v>
+        <v>0.7836588519573281</v>
       </c>
       <c r="S41">
-        <v>0.4577410468319559</v>
+        <v>0.7790014684287813</v>
       </c>
       <c r="T41">
-        <v>0.9072681704260651</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="U41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V41">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W41">
-        <v>0.7672732371297316</v>
+        <v>0.8193869397615444</v>
+      </c>
+      <c r="X41">
+        <v>0.970730205454764</v>
+      </c>
+      <c r="Y41">
+        <v>0.92049371240474</v>
       </c>
       <c r="Z41" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA41">
-        <v>19.93570529998397</v>
+        <v>1.995892400009325</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I42">
-        <v>2950</v>
+        <v>209</v>
       </c>
       <c r="J42">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K42">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L42">
-        <v>0.9576019645710397</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="M42">
-        <v>0.9576271186440678</v>
+        <v>0.6907536907536908</v>
       </c>
       <c r="N42">
-        <v>0.9162898571677296</v>
+        <v>0.7172791438965261</v>
       </c>
       <c r="O42">
-        <v>0.9152542372881356</v>
+        <v>0.7100973330919003</v>
       </c>
       <c r="P42">
-        <v>0.7024725274725274</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="Q42">
-        <v>0.7341463414634146</v>
+        <v>0.8206349206349207</v>
       </c>
       <c r="R42">
-        <v>0.4111629396881826</v>
+        <v>0.7531013707577048</v>
       </c>
       <c r="S42">
-        <v>0.4061104582843714</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="T42">
-        <v>0.9047619047619048</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U42" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V42">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>0.7061479918897061</v>
+        <v>0.8085285372444879</v>
+      </c>
+      <c r="X42">
+        <v>0.9770730706075534</v>
+      </c>
+      <c r="Y42">
+        <v>0.94091782011809</v>
       </c>
       <c r="Z42" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA42">
-        <v>22.33129200001713</v>
+        <v>1.82852670000284</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I43">
-        <v>2920</v>
+        <v>176</v>
       </c>
       <c r="J43">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L43">
-        <v>0.9588787684613452</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="M43">
-        <v>0.958904109589041</v>
+        <v>0.7155128205128205</v>
       </c>
       <c r="N43">
-        <v>0.9188146567847244</v>
+        <v>0.6807020645306401</v>
       </c>
       <c r="O43">
-        <v>0.9178082191780822</v>
+        <v>0.6741515044731653</v>
       </c>
       <c r="P43">
-        <v>0.7294495999380048</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="Q43">
-        <v>0.7688346883468835</v>
+        <v>0.8325396825396826</v>
       </c>
       <c r="R43">
-        <v>0.466934184921374</v>
+        <v>0.7836588519573281</v>
       </c>
       <c r="S43">
-        <v>0.4601646758668677</v>
+        <v>0.7790014684287813</v>
       </c>
       <c r="T43">
-        <v>0.9122807017543859</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="U43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V43">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>0.7500677476176804</v>
+        <v>0.8193869397615444</v>
+      </c>
+      <c r="X43">
+        <v>0.970730205454764</v>
+      </c>
+      <c r="Y43">
+        <v>0.92049371240474</v>
       </c>
       <c r="Z43" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA43">
-        <v>21.92130450002151</v>
+        <v>1.872529099986423</v>
       </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
       </c>
       <c r="I44">
-        <v>2802</v>
+        <v>209</v>
       </c>
       <c r="J44">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L44">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="M44">
-        <v>0.9621771733604474</v>
+        <v>0.6907536907536908</v>
       </c>
       <c r="N44">
-        <v>0.9254475874222921</v>
+        <v>0.7172791438965261</v>
       </c>
       <c r="O44">
-        <v>0.9243402367173367</v>
+        <v>0.7100973330919003</v>
       </c>
       <c r="P44">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="Q44">
-        <v>0.7814363143631435</v>
+        <v>0.8206349206349207</v>
       </c>
       <c r="R44">
-        <v>0.469219500565384</v>
+        <v>0.7531013707577048</v>
       </c>
       <c r="S44">
-        <v>0.4577410468319559</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="T44">
-        <v>0.9072681704260651</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="U44" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V44">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>0.7672732371297316</v>
+        <v>0.8085285372444879</v>
+      </c>
+      <c r="X44">
+        <v>0.9770730706075534</v>
+      </c>
+      <c r="Y44">
+        <v>0.94091782011809</v>
       </c>
       <c r="Z44" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA44">
-        <v>19.53339210001286</v>
+        <v>1.89904829999432</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I45">
-        <v>2950</v>
+        <v>176</v>
       </c>
       <c r="J45">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L45">
-        <v>0.9576019645710397</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="M45">
-        <v>0.9576271186440678</v>
+        <v>0.7155128205128205</v>
       </c>
       <c r="N45">
-        <v>0.9162898571677296</v>
+        <v>0.6807020645306401</v>
       </c>
       <c r="O45">
-        <v>0.9152542372881356</v>
+        <v>0.6741515044731653</v>
       </c>
       <c r="P45">
-        <v>0.7024725274725274</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="Q45">
-        <v>0.7341463414634146</v>
+        <v>0.8325396825396826</v>
       </c>
       <c r="R45">
-        <v>0.4111629396881826</v>
+        <v>0.7836588519573281</v>
       </c>
       <c r="S45">
-        <v>0.4061104582843714</v>
+        <v>0.7790014684287813</v>
       </c>
       <c r="T45">
-        <v>0.9047619047619048</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="U45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V45">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>0.7061479918897061</v>
+        <v>0.8193869397615444</v>
+      </c>
+      <c r="X45">
+        <v>0.970730205454764</v>
+      </c>
+      <c r="Y45">
+        <v>0.92049371240474</v>
       </c>
       <c r="Z45" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA45">
-        <v>21.81579269998474</v>
+        <v>1.884275799995521</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I46">
-        <v>2920</v>
+        <v>570</v>
       </c>
       <c r="J46">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K46">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L46">
-        <v>0.9588787684613452</v>
+        <v>0.9648814521753615</v>
       </c>
       <c r="M46">
-        <v>0.958904109589041</v>
+        <v>0.9649122807017545</v>
       </c>
       <c r="N46">
-        <v>0.9188146567847244</v>
+        <v>0.9308139397020325</v>
       </c>
       <c r="O46">
-        <v>0.9178082191780822</v>
+        <v>0.9298245614035089</v>
       </c>
       <c r="P46">
-        <v>0.7294495999380048</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="Q46">
-        <v>0.7688346883468835</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="R46">
-        <v>0.466934184921374</v>
+        <v>0.9441549509633318</v>
       </c>
       <c r="S46">
-        <v>0.4601646758668677</v>
+        <v>0.9425981873111783</v>
       </c>
       <c r="T46">
-        <v>0.9122807017543859</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="U46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V46">
-        <v>0.6</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="W46">
-        <v>0.7500677476176804</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="Z46" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA46">
-        <v>21.88695759998518</v>
+        <v>2.644708500010893</v>
       </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
         <v>43</v>
       </c>
       <c r="I47">
-        <v>2802</v>
+        <v>570</v>
       </c>
       <c r="J47">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K47">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L47">
-        <v>0.9621453490355499</v>
+        <v>0.9561369757599076</v>
       </c>
       <c r="M47">
-        <v>0.9621771733604474</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="N47">
-        <v>0.9254475874222921</v>
+        <v>0.9124211282466753</v>
       </c>
       <c r="O47">
-        <v>0.9243402367173367</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="P47">
-        <v>0.7277455048409405</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>0.7814363143631435</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>0.469219500565384</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>0.4577410468319559</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0.9072681704260651</v>
+        <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V47">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>0.7672732371297316</v>
+        <v>1</v>
       </c>
       <c r="Z47" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA47">
-        <v>20.54374419999658</v>
+        <v>2.994600500009255</v>
       </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I48">
-        <v>2950</v>
+        <v>570</v>
       </c>
       <c r="J48">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K48">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L48">
-        <v>0.9576019645710397</v>
+        <v>0.9648814521753615</v>
       </c>
       <c r="M48">
-        <v>0.9576271186440678</v>
+        <v>0.9649122807017545</v>
       </c>
       <c r="N48">
-        <v>0.9162898571677296</v>
+        <v>0.9308139397020325</v>
       </c>
       <c r="O48">
-        <v>0.9152542372881356</v>
+        <v>0.9298245614035089</v>
       </c>
       <c r="P48">
-        <v>0.7024725274725274</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="Q48">
-        <v>0.7341463414634146</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="R48">
-        <v>0.4111629396881826</v>
+        <v>0.9441549509633318</v>
       </c>
       <c r="S48">
-        <v>0.4061104582843714</v>
+        <v>0.9425981873111783</v>
       </c>
       <c r="T48">
-        <v>0.9047619047619048</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="U48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V48">
-        <v>0.5333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="W48">
-        <v>0.7061479918897061</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="Z48" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA48">
-        <v>21.65432580001652</v>
+        <v>2.620226600003662</v>
       </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I49">
-        <v>2920</v>
+        <v>570</v>
       </c>
       <c r="J49">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K49">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L49">
-        <v>0.9588787684613452</v>
+        <v>0.9561369757599076</v>
       </c>
       <c r="M49">
-        <v>0.958904109589041</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="N49">
-        <v>0.9188146567847244</v>
+        <v>0.9124211282466753</v>
       </c>
       <c r="O49">
-        <v>0.9178082191780822</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="P49">
-        <v>0.7294495999380048</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>0.7688346883468835</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>0.466934184921374</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <v>0.4601646758668677</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="V49">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>0.7500677476176804</v>
+        <v>1</v>
       </c>
       <c r="Z49" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA49">
-        <v>21.75836029998027</v>
+        <v>2.659241599991219</v>
       </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
       </c>
       <c r="I50">
-        <v>2802</v>
+        <v>570</v>
       </c>
       <c r="J50">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K50">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L50">
-        <v>0.9621453490355499</v>
+        <v>0.9648814521753615</v>
       </c>
       <c r="M50">
-        <v>0.9621771733604474</v>
+        <v>0.9649122807017545</v>
       </c>
       <c r="N50">
-        <v>0.9254475874222921</v>
+        <v>0.9308139397020325</v>
       </c>
       <c r="O50">
-        <v>0.9243402367173367</v>
+        <v>0.9298245614035089</v>
       </c>
       <c r="P50">
-        <v>0.7277455048409405</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="Q50">
-        <v>0.7814363143631435</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="R50">
-        <v>0.469219500565384</v>
+        <v>0.9441549509633318</v>
       </c>
       <c r="S50">
-        <v>0.4577410468319559</v>
+        <v>0.9425981873111783</v>
       </c>
       <c r="T50">
-        <v>0.9072681704260651</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="U50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V50">
-        <v>0.6333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="W50">
-        <v>0.7672732371297316</v>
+        <v>0.9636241116594315</v>
       </c>
       <c r="Z50" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA50">
-        <v>19.93111640002462</v>
+        <v>2.596114399988437</v>
       </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I51">
-        <v>2950</v>
+        <v>570</v>
       </c>
       <c r="J51">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K51">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L51">
-        <v>0.9576019645710397</v>
+        <v>0.9561369757599076</v>
       </c>
       <c r="M51">
-        <v>0.9576271186440678</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="N51">
-        <v>0.9162898571677296</v>
+        <v>0.9124211282466753</v>
       </c>
       <c r="O51">
-        <v>0.9152542372881356</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="P51">
-        <v>0.7024725274725274</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>0.7341463414634146</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>0.4111629396881826</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>0.4061104582843714</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>0.9047619047619048</v>
+        <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="V51">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>0.7061479918897061</v>
+        <v>1</v>
       </c>
       <c r="Z51" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA51">
-        <v>21.87179120001383</v>
+        <v>3.135069999989355</v>
       </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52">
+        <v>570</v>
+      </c>
+      <c r="J52">
+        <v>114</v>
+      </c>
+      <c r="K52">
         <v>30</v>
       </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52">
-        <v>2920</v>
-      </c>
-      <c r="J52">
-        <v>399</v>
-      </c>
-      <c r="K52">
-        <v>100</v>
-      </c>
       <c r="L52">
-        <v>0.9588787684613452</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="M52">
-        <v>0.958904109589041</v>
+        <v>0.9543859649122807</v>
       </c>
       <c r="N52">
-        <v>0.9188146567847244</v>
+        <v>0.9093280723431487</v>
       </c>
       <c r="O52">
-        <v>0.9178082191780822</v>
+        <v>0.9087719298245615</v>
       </c>
       <c r="P52">
-        <v>0.7294495999380048</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="Q52">
-        <v>0.7688346883468835</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="R52">
-        <v>0.466934184921374</v>
+        <v>0.962621902223779</v>
       </c>
       <c r="S52">
-        <v>0.4601646758668677</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="T52">
-        <v>0.9122807017543859</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="U52" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="V52">
-        <v>0.6</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="W52">
-        <v>0.7500677476176804</v>
+        <v>0.9759000729485332</v>
       </c>
       <c r="Z52" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA52">
-        <v>22.49182819999987</v>
+        <v>2.778528100025142</v>
       </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" t="s">
-        <v>37</v>
-      </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
       </c>
       <c r="I53">
-        <v>2802</v>
+        <v>570</v>
       </c>
       <c r="J53">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K53">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L53">
-        <v>0.9621453490355499</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="M53">
-        <v>0.9621771733604474</v>
+        <v>0.9596491228070174</v>
       </c>
       <c r="N53">
-        <v>0.9254475874222921</v>
+        <v>0.9197774115411983</v>
       </c>
       <c r="O53">
-        <v>0.9243402367173367</v>
+        <v>0.9192982456140351</v>
       </c>
       <c r="P53">
-        <v>0.7277455048409405</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="Q53">
-        <v>0.7814363143631435</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="R53">
-        <v>0.469219500565384</v>
+        <v>0.9812328999345131</v>
       </c>
       <c r="S53">
-        <v>0.4577410468319559</v>
+        <v>0.9810568295114656</v>
       </c>
       <c r="T53">
-        <v>0.9072681704260651</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="U53" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="V53">
-        <v>0.6333333333333333</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="W53">
-        <v>0.7672732371297316</v>
+        <v>0.9880235200593537</v>
       </c>
       <c r="Z53" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA53">
-        <v>20.18035350000719</v>
+        <v>2.86559249999118</v>
       </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54">
+        <v>570</v>
+      </c>
+      <c r="J54">
+        <v>114</v>
+      </c>
+      <c r="K54">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54">
-        <v>2950</v>
-      </c>
-      <c r="J54">
-        <v>399</v>
-      </c>
-      <c r="K54">
-        <v>100</v>
-      </c>
       <c r="L54">
-        <v>0.9576019645710397</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="M54">
-        <v>0.9576271186440678</v>
+        <v>0.9543859649122807</v>
       </c>
       <c r="N54">
-        <v>0.9162898571677296</v>
+        <v>0.9093280723431487</v>
       </c>
       <c r="O54">
-        <v>0.9152542372881356</v>
+        <v>0.9087719298245615</v>
       </c>
       <c r="P54">
-        <v>0.7024725274725274</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="Q54">
-        <v>0.7341463414634146</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="R54">
-        <v>0.4111629396881826</v>
+        <v>0.962621902223779</v>
       </c>
       <c r="S54">
-        <v>0.4061104582843714</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="T54">
-        <v>0.9047619047619048</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="U54" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="V54">
-        <v>0.5333333333333333</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="W54">
-        <v>0.7061479918897061</v>
+        <v>0.9759000729485332</v>
       </c>
       <c r="Z54" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA54">
-        <v>21.33700639999006</v>
+        <v>2.797829699993599</v>
       </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55">
+        <v>570</v>
+      </c>
+      <c r="J55">
+        <v>114</v>
+      </c>
+      <c r="K55">
         <v>30</v>
       </c>
-      <c r="D55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55">
-        <v>2920</v>
-      </c>
-      <c r="J55">
-        <v>399</v>
-      </c>
-      <c r="K55">
-        <v>100</v>
-      </c>
       <c r="L55">
-        <v>0.9588787684613452</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="M55">
-        <v>0.958904109589041</v>
+        <v>0.9596491228070174</v>
       </c>
       <c r="N55">
-        <v>0.9188146567847244</v>
+        <v>0.9197774115411983</v>
       </c>
       <c r="O55">
-        <v>0.9178082191780822</v>
+        <v>0.9192982456140351</v>
       </c>
       <c r="P55">
-        <v>0.7294495999380048</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="Q55">
-        <v>0.7688346883468835</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="R55">
-        <v>0.466934184921374</v>
+        <v>0.9812328999345131</v>
       </c>
       <c r="S55">
-        <v>0.4601646758668677</v>
+        <v>0.9810568295114656</v>
       </c>
       <c r="T55">
-        <v>0.9122807017543859</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="U55" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="V55">
-        <v>0.6</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="W55">
-        <v>0.7500677476176804</v>
+        <v>0.9880235200593537</v>
       </c>
       <c r="Z55" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA55">
-        <v>21.55884879999212</v>
+        <v>2.811677199992118</v>
       </c>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
         <v>43</v>
       </c>
       <c r="I56">
-        <v>2802</v>
+        <v>570</v>
       </c>
       <c r="J56">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K56">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L56">
-        <v>0.9621453490355499</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="M56">
-        <v>0.9621771733604474</v>
+        <v>0.9543859649122807</v>
       </c>
       <c r="N56">
-        <v>0.9254475874222921</v>
+        <v>0.9093280723431487</v>
       </c>
       <c r="O56">
-        <v>0.9243402367173367</v>
+        <v>0.9087719298245615</v>
       </c>
       <c r="P56">
-        <v>0.7277455048409405</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="Q56">
-        <v>0.7814363143631435</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="R56">
-        <v>0.469219500565384</v>
+        <v>0.962621902223779</v>
       </c>
       <c r="S56">
-        <v>0.4577410468319559</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="T56">
-        <v>0.9072681704260651</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="U56" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V56">
-        <v>0.6333333333333333</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="W56">
-        <v>0.7672732371297316</v>
+        <v>0.9759000729485332</v>
       </c>
       <c r="Z56" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA56">
-        <v>20.07134280001628</v>
+        <v>2.824492799991276</v>
       </c>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57">
+        <v>570</v>
+      </c>
+      <c r="J57">
+        <v>114</v>
+      </c>
+      <c r="K57">
         <v>30</v>
       </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57">
-        <v>2950</v>
-      </c>
-      <c r="J57">
-        <v>399</v>
-      </c>
-      <c r="K57">
-        <v>100</v>
-      </c>
       <c r="L57">
-        <v>0.9576019645710397</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="M57">
-        <v>0.9576271186440678</v>
+        <v>0.9596491228070174</v>
       </c>
       <c r="N57">
-        <v>0.9162898571677296</v>
+        <v>0.9197774115411983</v>
       </c>
       <c r="O57">
-        <v>0.9152542372881356</v>
+        <v>0.9192982456140351</v>
       </c>
       <c r="P57">
-        <v>0.7024725274725274</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="Q57">
-        <v>0.7341463414634146</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="R57">
-        <v>0.4111629396881826</v>
+        <v>0.9812328999345131</v>
       </c>
       <c r="S57">
-        <v>0.4061104582843714</v>
+        <v>0.9810568295114656</v>
       </c>
       <c r="T57">
-        <v>0.9047619047619048</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="U57" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="V57">
-        <v>0.5333333333333333</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="W57">
-        <v>0.7061479918897061</v>
+        <v>0.9880235200593537</v>
       </c>
       <c r="Z57" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA57">
-        <v>21.35256280002068</v>
+        <v>2.624921000009635</v>
       </c>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I58">
-        <v>2920</v>
+        <v>570</v>
       </c>
       <c r="J58">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K58">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L58">
-        <v>0.9588787684613452</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="M58">
-        <v>0.958904109589041</v>
+        <v>0.9543859649122807</v>
       </c>
       <c r="N58">
-        <v>0.9188146567847244</v>
+        <v>0.9093280723431487</v>
       </c>
       <c r="O58">
-        <v>0.9178082191780822</v>
+        <v>0.9087719298245615</v>
       </c>
       <c r="P58">
-        <v>0.7294495999380048</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="Q58">
-        <v>0.7688346883468835</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="R58">
-        <v>0.466934184921374</v>
+        <v>0.962621902223779</v>
       </c>
       <c r="S58">
-        <v>0.4601646758668677</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="T58">
-        <v>0.9122807017543859</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="U58" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="V58">
-        <v>0.6</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="W58">
-        <v>0.7500677476176804</v>
+        <v>0.9759000729485332</v>
       </c>
       <c r="Z58" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA58">
-        <v>21.74567020000541</v>
+        <v>2.738750599994091</v>
       </c>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
         <v>43</v>
       </c>
       <c r="I59">
-        <v>2802</v>
+        <v>570</v>
       </c>
       <c r="J59">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="K59">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L59">
-        <v>0.9621453490355499</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="M59">
-        <v>0.9621771733604474</v>
+        <v>0.9596491228070174</v>
       </c>
       <c r="N59">
-        <v>0.9254475874222921</v>
+        <v>0.9197774115411983</v>
       </c>
       <c r="O59">
-        <v>0.9243402367173367</v>
+        <v>0.9192982456140351</v>
       </c>
       <c r="P59">
-        <v>0.7277455048409405</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="Q59">
-        <v>0.7814363143631435</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="R59">
-        <v>0.469219500565384</v>
+        <v>0.9812328999345131</v>
       </c>
       <c r="S59">
-        <v>0.4577410468319559</v>
+        <v>0.9810568295114656</v>
       </c>
       <c r="T59">
-        <v>0.9072681704260651</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="U59" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="V59">
-        <v>0.6333333333333333</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="W59">
-        <v>0.7672732371297316</v>
+        <v>0.9880235200593537</v>
       </c>
       <c r="Z59" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AA59">
-        <v>19.65421310000238</v>
+        <v>2.702583300007973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60">
+        <v>570</v>
+      </c>
+      <c r="J60">
+        <v>114</v>
+      </c>
+      <c r="K60">
+        <v>30</v>
+      </c>
+      <c r="L60">
+        <v>0.9543708354052413</v>
+      </c>
+      <c r="M60">
+        <v>0.9543859649122807</v>
+      </c>
+      <c r="N60">
+        <v>0.9093280723431487</v>
+      </c>
+      <c r="O60">
+        <v>0.9087719298245615</v>
+      </c>
+      <c r="P60">
+        <v>0.9809555629802873</v>
+      </c>
+      <c r="Q60">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="R60">
+        <v>0.962621902223779</v>
+      </c>
+      <c r="S60">
+        <v>0.9619238476953907</v>
+      </c>
+      <c r="T60">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="U60" t="s">
+        <v>57</v>
+      </c>
+      <c r="V60">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="W60">
+        <v>0.9759000729485332</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA60">
+        <v>2.633812500018394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61">
+        <v>570</v>
+      </c>
+      <c r="J61">
+        <v>114</v>
+      </c>
+      <c r="K61">
+        <v>30</v>
+      </c>
+      <c r="L61">
+        <v>0.9596379134264797</v>
+      </c>
+      <c r="M61">
+        <v>0.9596491228070174</v>
+      </c>
+      <c r="N61">
+        <v>0.9197774115411983</v>
+      </c>
+      <c r="O61">
+        <v>0.9192982456140351</v>
+      </c>
+      <c r="P61">
+        <v>0.9905276277523889</v>
+      </c>
+      <c r="Q61">
+        <v>0.9880952380952381</v>
+      </c>
+      <c r="R61">
+        <v>0.9812328999345131</v>
+      </c>
+      <c r="S61">
+        <v>0.9810568295114656</v>
+      </c>
+      <c r="T61">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="U61" t="s">
+        <v>58</v>
+      </c>
+      <c r="V61">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="W61">
+        <v>0.9880235200593537</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA61">
+        <v>2.785127800016198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62">
+        <v>570</v>
+      </c>
+      <c r="J62">
+        <v>114</v>
+      </c>
+      <c r="K62">
+        <v>30</v>
+      </c>
+      <c r="L62">
+        <v>0.9543708354052413</v>
+      </c>
+      <c r="M62">
+        <v>0.9543859649122807</v>
+      </c>
+      <c r="N62">
+        <v>0.9093280723431487</v>
+      </c>
+      <c r="O62">
+        <v>0.9087719298245615</v>
+      </c>
+      <c r="P62">
+        <v>0.9809555629802873</v>
+      </c>
+      <c r="Q62">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="R62">
+        <v>0.962621902223779</v>
+      </c>
+      <c r="S62">
+        <v>0.9619238476953907</v>
+      </c>
+      <c r="T62">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="U62" t="s">
+        <v>57</v>
+      </c>
+      <c r="V62">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="W62">
+        <v>0.9759000729485332</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA62">
+        <v>2.6555133999791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63">
+        <v>570</v>
+      </c>
+      <c r="J63">
+        <v>114</v>
+      </c>
+      <c r="K63">
+        <v>30</v>
+      </c>
+      <c r="L63">
+        <v>0.9596379134264797</v>
+      </c>
+      <c r="M63">
+        <v>0.9596491228070174</v>
+      </c>
+      <c r="N63">
+        <v>0.9197774115411983</v>
+      </c>
+      <c r="O63">
+        <v>0.9192982456140351</v>
+      </c>
+      <c r="P63">
+        <v>0.9905276277523889</v>
+      </c>
+      <c r="Q63">
+        <v>0.9880952380952381</v>
+      </c>
+      <c r="R63">
+        <v>0.9812328999345131</v>
+      </c>
+      <c r="S63">
+        <v>0.9810568295114656</v>
+      </c>
+      <c r="T63">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="U63" t="s">
+        <v>58</v>
+      </c>
+      <c r="V63">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="W63">
+        <v>0.9880235200593537</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA63">
+        <v>2.812271499977214</v>
       </c>
     </row>
   </sheetData>
@@ -5106,7 +5564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5115,18 +5573,18 @@
     <row r="1" spans="1:8">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5134,16 +5592,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -5161,25 +5619,77 @@
         <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>0.959945861645677</v>
+        <v>0.7653686888534088</v>
       </c>
       <c r="D4">
-        <v>0.7185365280828198</v>
+        <v>0.7006541995204698</v>
       </c>
       <c r="E4">
-        <v>0.7204606160654248</v>
+        <v>0.8872989948551724</v>
       </c>
       <c r="F4">
-        <v>0.7652941176470589</v>
+        <v>0.8846252479912903</v>
       </c>
       <c r="G4">
-        <v>0.2414093335628572</v>
+        <v>0.064714489332939</v>
       </c>
       <c r="H4">
-        <v>-0.04483350158163413</v>
+        <v>0.002673746863882109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0.7296456057241665</v>
+      </c>
+      <c r="D5">
+        <v>0.670951431820997</v>
+      </c>
+      <c r="E5">
+        <v>0.8114496289469084</v>
+      </c>
+      <c r="F5">
+        <v>0.8374039938556067</v>
+      </c>
+      <c r="G5">
+        <v>0.05869417390316944</v>
+      </c>
+      <c r="H5">
+        <v>-0.02595436490869829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0.9600669071869273</v>
+      </c>
+      <c r="D6">
+        <v>0.9597136425335083</v>
+      </c>
+      <c r="E6">
+        <v>0.983645883023287</v>
+      </c>
+      <c r="F6">
+        <v>0.9614864864864865</v>
+      </c>
+      <c r="G6">
+        <v>0.0003532646534190054</v>
+      </c>
+      <c r="H6">
+        <v>0.02215939653680055</v>
       </c>
     </row>
   </sheetData>
@@ -5193,7 +5703,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5207,7 +5717,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -5239,34 +5749,34 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>0.7652941176470589</v>
+        <v>0.8953866146848602</v>
       </c>
       <c r="I2">
-        <v>0.7185365280828198</v>
+        <v>0.7660922448653535</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5274,34 +5784,34 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>0.7403924860950781</v>
+        <v>0.8953866146848602</v>
       </c>
       <c r="I3">
-        <v>0.9681105778205431</v>
+        <v>0.7660922448653535</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5309,34 +5819,34 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>0.7294495999380048</v>
+        <v>0.8953866146848602</v>
       </c>
       <c r="I4">
-        <v>0.9588787684613452</v>
+        <v>0.7660922448653535</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5344,34 +5854,34 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="I5">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5379,34 +5889,34 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="I6">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5414,34 +5924,34 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="I7">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5449,7 +5959,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -5458,25 +5968,25 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="I8">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5484,7 +5994,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -5493,25 +6003,25 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="I9">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5519,34 +6029,34 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>0.7294495999380048</v>
+        <v>0.8911267541461637</v>
       </c>
       <c r="I10">
-        <v>0.9588787684613452</v>
+        <v>0.7330444872747363</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5554,34 +6064,34 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0.7294495999380048</v>
+        <v>0.8846252479912903</v>
       </c>
       <c r="I11">
-        <v>0.9588787684613452</v>
+        <v>0.7006541995204698</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5589,34 +6099,34 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I12">
-        <v>0.9588787684613452</v>
+        <v>0.7603933372870511</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5624,34 +6134,34 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I13">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5659,34 +6169,34 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I14">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5694,34 +6204,34 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I15">
-        <v>0.9588787684613452</v>
+        <v>0.7603933372870511</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5729,34 +6239,34 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I16">
-        <v>0.9588787684613452</v>
+        <v>0.7603933372870511</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5764,7 +6274,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -5773,25 +6283,25 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I17">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5799,34 +6309,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I18">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5834,34 +6344,34 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I19">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5869,45 +6379,45 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>0.7294495999380048</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="I20">
-        <v>0.9588787684613452</v>
+        <v>0.7998187882092879</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -5916,278 +6426,278 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>0.7294495999380048</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="I21">
-        <v>0.9588787684613452</v>
+        <v>0.670951431820997</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>0.7282016348773842</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="I22">
-        <v>0.9647269587827587</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>0.7277455048409405</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="I23">
-        <v>0.9621453490355499</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>0.7277455048409405</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="I24">
-        <v>0.9621453490355499</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>0.7277455048409405</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="I25">
-        <v>0.9621453490355499</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>0.7277455048409405</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="I26">
-        <v>0.9621453490355499</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>0.7277455048409405</v>
+        <v>0.8374039938556067</v>
       </c>
       <c r="I27">
-        <v>0.9621453490355499</v>
+        <v>0.709101639101639</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0.7277455048409405</v>
+        <v>0.8170878902061697</v>
       </c>
       <c r="I28">
-        <v>0.9621453490355499</v>
+        <v>0.7828276091724368</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -6196,173 +6706,173 @@
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0.7277455048409405</v>
+        <v>0.8170878902061697</v>
       </c>
       <c r="I29">
-        <v>0.9621453490355499</v>
+        <v>0.7828276091724368</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>0.7277455048409405</v>
+        <v>0.8170878902061697</v>
       </c>
       <c r="I30">
-        <v>0.9621453490355499</v>
+        <v>0.7828276091724368</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>0.7277455048409405</v>
+        <v>0.8076861808044603</v>
       </c>
       <c r="I31">
-        <v>0.9621453490355499</v>
+        <v>0.6940391834644708</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0.7277455048409405</v>
+        <v>0.8076861808044603</v>
       </c>
       <c r="I32">
-        <v>0.9621453490355499</v>
+        <v>0.6940391834644708</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0.7277455048409405</v>
+        <v>0.8076861808044603</v>
       </c>
       <c r="I33">
-        <v>0.9621453490355499</v>
+        <v>0.6940391834644708</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
@@ -6371,897 +6881,1037 @@
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>0.7277455048409405</v>
+        <v>0.7938610240334377</v>
       </c>
       <c r="I34">
-        <v>0.9621453490355499</v>
+        <v>0.8977152557587342</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="I35">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="I36">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="I37">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="I38">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="I39">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>0.7277455048409405</v>
+        <v>0.7911056376573619</v>
       </c>
       <c r="I40">
-        <v>0.9621453490355499</v>
+        <v>0.6820969921114849</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>0.7236436142302445</v>
+        <v>0.789751552795031</v>
       </c>
       <c r="I41">
-        <v>0.9688070999774594</v>
+        <v>0.9174046935351283</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>0.7024725274725274</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0.9576019645710397</v>
+        <v>0.9561369757599076</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" t="s">
-        <v>40</v>
-      </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>0.7024725274725274</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0.9576019645710397</v>
+        <v>0.9561369757599076</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>0.7024725274725274</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0.9576019645710397</v>
+        <v>0.9561369757599076</v>
       </c>
       <c r="J44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>0.7024725274725274</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="I45">
-        <v>0.9576019645710397</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>0.7024725274725274</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="I46">
-        <v>0.9576019645710397</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>0.7024725274725274</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="I47">
-        <v>0.9576019645710397</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>0.7024725274725274</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="I48">
-        <v>0.9576019645710397</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0.7024725274725274</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="I49">
-        <v>0.9576019645710397</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>0.7024725274725274</v>
+        <v>0.9905276277523889</v>
       </c>
       <c r="I50">
-        <v>0.9576019645710397</v>
+        <v>0.9596379134264797</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>0.7024725274725274</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="I51">
-        <v>0.9576019645710397</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>0.7024725274725274</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="I52">
-        <v>0.9576019645710397</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
-        <v>0.7024725274725274</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="I53">
-        <v>0.9576019645710397</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="J53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>0.7024725274725274</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="I54">
-        <v>0.9576019645710397</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0.7024725274725274</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="I55">
-        <v>0.9576019645710397</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K55" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0.7024725274725274</v>
+        <v>0.9809555629802873</v>
       </c>
       <c r="I56">
-        <v>0.9576019645710397</v>
+        <v>0.9543708354052413</v>
       </c>
       <c r="J56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
         <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>0.7024725274725274</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="I57">
-        <v>0.9576019645710397</v>
+        <v>0.9722210536957601</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>0.7024725274725274</v>
+        <v>0.9712773998488284</v>
       </c>
       <c r="I58">
-        <v>0.9576019645710397</v>
+        <v>0.9736692160239679</v>
       </c>
       <c r="J58" t="s">
         <v>34</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59">
+        <v>0.9712773998488284</v>
+      </c>
+      <c r="I59">
+        <v>0.9684070044096116</v>
+      </c>
+      <c r="J59" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60">
+        <v>0.9712773998488284</v>
+      </c>
+      <c r="I60">
+        <v>0.9648814521753615</v>
+      </c>
+      <c r="J60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61">
+        <v>0.9712773998488284</v>
+      </c>
+      <c r="I61">
+        <v>0.9648814521753615</v>
+      </c>
+      <c r="J61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62">
+        <v>0.9712773998488284</v>
+      </c>
+      <c r="I62">
+        <v>0.9648814521753615</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
         <v>30</v>
       </c>
-      <c r="C59">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59">
-        <v>0.7024725274725274</v>
-      </c>
-      <c r="I59">
-        <v>0.9576019645710397</v>
-      </c>
-      <c r="J59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" t="s">
-        <v>51</v>
+      <c r="H63">
+        <v>0.9614864864864865</v>
+      </c>
+      <c r="I63">
+        <v>0.9597136425335083</v>
+      </c>
+      <c r="J63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
